--- a/Misc./Suppl. Table 1 - Overview of Data.xlsx
+++ b/Misc./Suppl. Table 1 - Overview of Data.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Overview" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Clinical Characteristics" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mFAST-SeqS (T1)" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="mFAST-SeqS (T2)" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CABARESC" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">CABARESC!$A$2:$AF$52</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Clinical Characteristics'!$A$1:$AI$138</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'mFAST-SeqS (T2)'!$A$1:$T$49</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Sample Overview'!$A$2:$V$139</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="681">
   <si>
     <t xml:space="preserve">Baseline characteristics</t>
   </si>
@@ -1366,20 +1368,729 @@
   </si>
   <si>
     <t xml:space="preserve">L-6793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mFAST-SeqS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTC Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR-V7 (Detailed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR-V7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total mapped Fast-Seq reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-Wide Z Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-wide status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO performance status [0-5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of castration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of prior chemotherapy regimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number prior chemo dichotomous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: Stop date prior chemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: Date of administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months between last chemo and start caba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbm at baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA at baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBC at baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC at baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dNLR at baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albumin at baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alkphos at baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldh at baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: Off study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cabazitaxel cycles adm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: Last contact (FU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survival time in months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No result, no epithelial signal detected in AR-V7 RNA profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9075_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68&amp;77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 prior regimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR-V7 negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9076_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURGIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9077_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9078_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9079_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9080_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR-V7 positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9081_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9082_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9083_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9084_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9088_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9085_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-06-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No result, poor quality RNA sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9086_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9087_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 or more regimens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9089_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9091_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9090_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-11-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9092_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9093_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9094_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9095_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-01-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9096_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9097_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9098_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9099_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69&amp;78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9100_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9101_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9102_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9103_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9104_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9105_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9106_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-06-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9107_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9108_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9109_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9110_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9111_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9112_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9114_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9116_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9117_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9118_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9119_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9120_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9121_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9122_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-06-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9123_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-06-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9124_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-02-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-11-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="169" formatCode="m/d/yy"/>
+    <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="169" formatCode="M/D/YY"/>
     <numFmt numFmtId="170" formatCode="0.00%"/>
+    <numFmt numFmtId="171" formatCode="@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1453,7 +2164,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1469,7 +2180,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
@@ -1499,7 +2210,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFBCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1530,6 +2241,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFAA61A"/>
         <bgColor rgb="FFF58220"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE5CA"/>
+        <bgColor rgb="FFFFFBCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EFD4"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFBCC"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1577,7 +2318,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1822,20 +2563,48 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1852,7 +2621,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFAA55A1"/>
-      <rgbColor rgb="FFFFFFD7"/>
+      <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1860,7 +2629,7 @@
       <rgbColor rgb="FFDFCCE4"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1869,14 +2638,14 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE0EFD4"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFE5CA"/>
       <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFAA61A"/>
       <rgbColor rgb="FFF58220"/>
@@ -1904,6 +2673,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -2046,17 +2819,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:V139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.7"/>
@@ -2078,7 +2851,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="23" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8857,22 +9631,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FFE0EFD4"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ139"/>
+  <dimension ref="A1:AJ138"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AL33" activeCellId="0" sqref="AL33"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="19.84"/>
@@ -8910,6 +9684,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="41" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="40" width="19.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="36" style="38" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22058,10 +22833,6 @@
         <v>43679</v>
       </c>
       <c r="AJ138" s="30"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI139" s="54"/>
-      <c r="AJ139" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AI138"/>
@@ -22077,7 +22848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FFDFCCE4"/>
     <pageSetUpPr fitToPage="false"/>
@@ -22088,10 +22859,11 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="30" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="2" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="30" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41611,7 +42383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FFDFCCE4"/>
     <pageSetUpPr fitToPage="false"/>
@@ -41622,9 +42394,10 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="30" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="30" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44676,4 +45449,5102 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFBCC"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AF52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="35.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="38.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="0" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>457</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="P2" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q2" s="65" t="s">
+        <v>460</v>
+      </c>
+      <c r="R2" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="S2" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>463</v>
+      </c>
+      <c r="U2" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="X2" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y2" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z2" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA2" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB2" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC2" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD2" s="66" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE2" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF2" s="66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>313577</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.345408354115014</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q3" s="54" t="n">
+        <v>41014</v>
+      </c>
+      <c r="R3" s="54" t="n">
+        <v>41059</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1.47843945026398</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>5.69999980926514</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>939</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>5.19999980926514</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>3.09999990463257</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1.47619044780731</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="AB3" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>31.2772083282471</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>163349</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>9.80882430245717</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q4" s="54" t="n">
+        <v>40780</v>
+      </c>
+      <c r="R4" s="54" t="n">
+        <v>41103</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>10.611909866333</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>8.30000019073486</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>6.69999980926514</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>1.39285731315613</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB4" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="67" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>32.3613967895508</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>204180</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-0.0114139944722389</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q5" s="54" t="n">
+        <v>41017</v>
+      </c>
+      <c r="R5" s="54" t="n">
+        <v>41143</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>4.13963031768799</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>7.30000019073486</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>4.90000009536743</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>2.04166650772095</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB5" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>35.6468162536621</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>172550</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1.41318287782526</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q6" s="54" t="n">
+        <v>41087</v>
+      </c>
+      <c r="R6" s="54" t="n">
+        <v>41157</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>2.29979467391968</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>6.80000019073486</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>5.59999990463257</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>4.66666555404663</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB6" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>21.6509246826172</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>140434</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>61.3134147752569</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q7" s="54" t="n">
+        <v>40794</v>
+      </c>
+      <c r="R7" s="54" t="n">
+        <v>41201</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>13.3716630935669</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>8.30000019073486</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>8.60000038146973</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>5.59999990463257</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>1.86666631698608</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>671</v>
+      </c>
+      <c r="AB7" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>11.3347024917603</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>147556</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>12.0207858350974</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q8" s="54" t="n">
+        <v>40869</v>
+      </c>
+      <c r="R8" s="54" t="n">
+        <v>41248</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>12.4517450332642</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>9.39999961853027</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>7.80000019073486</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>4.87500190734863</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="AB8" s="67" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>15.2443532943726</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>174945</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1.63916724832672</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q9" s="54" t="n">
+        <v>40765</v>
+      </c>
+      <c r="R9" s="54" t="n">
+        <v>41299</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>17.5441474914551</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>769</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>5.09999990463257</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>3.09999990463257</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>1.54999995231628</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="AB9" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>17.3141689300537</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>186287</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.441911475727777</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q10" s="54" t="n">
+        <v>41277</v>
+      </c>
+      <c r="R10" s="54" t="n">
+        <v>41306</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0.952772080898285</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>8.30000019073486</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>5.90000009536743</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>4.09999990463257</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>2.27777743339539</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>473</v>
+      </c>
+      <c r="AB10" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="67" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>24.509241104126</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>136917</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1.10561211858072</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q11" s="54" t="n">
+        <v>41122</v>
+      </c>
+      <c r="R11" s="54" t="n">
+        <v>41311</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>6.20944547653198</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>7.80000019073486</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>9.39999961853027</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>7.40000009536743</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>3.70000100135803</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="AB11" s="67" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>19.1868591308594</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>113410</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2.58131488890961</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>520</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q12" s="54" t="n">
+        <v>41127</v>
+      </c>
+      <c r="R12" s="54" t="n">
+        <v>41323</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>6.43942499160767</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>8.69999980926514</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>4.19999980926514</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>2.50000047683716</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>364</v>
+      </c>
+      <c r="AB12" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>33.7412719726562</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>155619</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>15.7468441138557</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>524</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q13" s="54" t="n">
+        <v>41276</v>
+      </c>
+      <c r="R13" s="54" t="n">
+        <v>41325</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>1.60985624790192</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>7.19999980926514</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>8.30000019073486</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>5.90000009536743</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>2.45833325386047</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="AB13" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>20.1067752838135</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>119962</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1.16064138673825</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q14" s="54" t="n">
+        <v>41187</v>
+      </c>
+      <c r="R14" s="54" t="n">
+        <v>41327</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>4.59958934783936</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>8.39999961853027</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>4.80000019073486</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>2.59999990463257</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>1.18181800842285</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="AB14" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>11.4989728927612</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>158244</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1.38398732404178</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q15" s="54" t="n">
+        <v>41270</v>
+      </c>
+      <c r="R15" s="54" t="n">
+        <v>41338</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>2.23408627510071</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>7.69999980926514</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>9.69999980926514</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>6.88000011444092</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>2.43971657752991</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="AB15" s="67" t="s">
+        <v>534</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>13.7987680435181</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>286416</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>18.2404193279056</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>537</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q16" s="54" t="n">
+        <v>41010</v>
+      </c>
+      <c r="R16" s="54" t="n">
+        <v>41352</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>11.2361392974854</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>8.10000038146973</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>862</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>8.60000038146973</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>6.80000019073486</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>3.77777743339539</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="AB16" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="67" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>13.0102672576904</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>146856</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1.4354633568415</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q17" s="54" t="n">
+        <v>40631</v>
+      </c>
+      <c r="R17" s="54" t="n">
+        <v>41386</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>24.8049278259277</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>7.69999980926514</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>12.8000001907349</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>8.60000038146973</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>2.04761934280395</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>383</v>
+      </c>
+      <c r="AB17" s="67" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="67" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>20.3696098327637</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>133133</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.00747030690450661</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q18" s="54" t="n">
+        <v>40765</v>
+      </c>
+      <c r="R18" s="54" t="n">
+        <v>41429</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>21.8151950836182</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>8.30000019073486</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>494</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>10.1000003814697</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>7.41666173934937</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>454</v>
+      </c>
+      <c r="AB18" s="67" t="s">
+        <v>547</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>18.661190032959</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>181673</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.182632765961326</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q19" s="54" t="n">
+        <v>40788</v>
+      </c>
+      <c r="R19" s="54" t="n">
+        <v>41425</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>20.9281311035156</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>7.40000009536743</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>12.8000001907349</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>10.0699996948242</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>3.68864393234253</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="AB19" s="67" t="s">
+        <v>551</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>29.3716640472412</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>131879</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>19.0353646745527</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q20" s="54" t="n">
+        <v>41388</v>
+      </c>
+      <c r="R20" s="54" t="n">
+        <v>41439</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>1.67556464672089</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>6.30000019073486</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>4.90000009536743</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>3.49999976158142</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="AB20" s="67" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="67" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>19.1540050506592</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>128176</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>21.0931133738511</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>558</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q21" s="54" t="n">
+        <v>41388</v>
+      </c>
+      <c r="R21" s="54" t="n">
+        <v>41457</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>2.2669403553009</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>6.40000009536743</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>5.30000019073486</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>3.11764740943909</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>948</v>
+      </c>
+      <c r="AB21" s="67" t="s">
+        <v>534</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="67" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>5.15811109542847</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>120211</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>10.4001430054256</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q22" s="54" t="n">
+        <v>40688</v>
+      </c>
+      <c r="R22" s="54" t="n">
+        <v>41466</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>25.5605754852295</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>4.30000019073486</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>0.954545259475708</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="AB22" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>12.9774131774902</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>152601</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1.01605360103561</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>565</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q23" s="54" t="n">
+        <v>41172</v>
+      </c>
+      <c r="R23" s="54" t="n">
+        <v>41466</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>9.65913772583008</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>6.80000019073486</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>1041</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>10.8999996185303</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>9.39999961853027</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>6.26666641235352</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>40.7999992370606</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="AB23" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>30.5215606689453</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>141215</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>3.77034431885672</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>569</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q24" s="54" t="n">
+        <v>41244</v>
+      </c>
+      <c r="R24" s="54" t="n">
+        <v>41480</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>7.75359344482422</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>7.59999990463257</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>1.66666662693024</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="AB24" s="67" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>6.30800819396973</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>166673</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>4.30057358628299</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>572</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q25" s="54" t="n">
+        <v>41337</v>
+      </c>
+      <c r="R25" s="54" t="n">
+        <v>41499</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>5.3223819732666</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>7.80000019073486</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>11.8999996185303</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>9.39999961853027</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>3.75999975204468</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="AB25" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" s="67" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <v>17.5770015716553</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>172591</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>16.8923658861495</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="67" t="s">
+        <v>576</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q26" s="54" t="n">
+        <v>41491</v>
+      </c>
+      <c r="R26" s="54" t="n">
+        <v>41529</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>1.24845993518829</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>7.19999980926514</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>4.54545497894287</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>38.2999992370605</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>875</v>
+      </c>
+      <c r="AB26" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>7.81930208206177</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>171384</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>24.1865839180721</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="67" t="s">
+        <v>581</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q27" s="54" t="n">
+        <v>41261</v>
+      </c>
+      <c r="R27" s="54" t="n">
+        <v>41544</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>9.2977409362793</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>7.80000019073486</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>1016</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>11.8000001907349</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>7.40000009536743</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>1.68181812763214</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="AB27" s="67" t="s">
+        <v>582</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="67" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>5.05954837799072</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>169113</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>124.216507036024</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="67" t="s">
+        <v>585</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q28" s="54" t="n">
+        <v>41521</v>
+      </c>
+      <c r="R28" s="54" t="n">
+        <v>41584</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>2.06981515884399</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>7.09999990463257</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>10.8000001907349</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>9.39999961853027</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>6.7142825126648</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>869</v>
+      </c>
+      <c r="AB28" s="67" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="67" t="s">
+        <v>587</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>2.89117050170898</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>112421</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.211029995775989</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q29" s="54" t="n">
+        <v>41450</v>
+      </c>
+      <c r="R29" s="54" t="n">
+        <v>41590</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>4.59958934783936</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>7.69999980926514</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>17.6000003814697</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>3.88888835906982</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="AB29" s="67" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="67" t="s">
+        <v>591</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>15.7700204849243</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>155196</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>56.3487329179062</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q30" s="54" t="n">
+        <v>41520</v>
+      </c>
+      <c r="R30" s="54" t="n">
+        <v>41600</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>2.62833666801453</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>6.69999980926514</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>663</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>9.30000019073486</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>9.30000019073486</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>461</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>1843</v>
+      </c>
+      <c r="AB30" s="67" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <v>7.03080081939697</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>196059</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.449421604120668</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q31" s="54" t="n">
+        <v>41519</v>
+      </c>
+      <c r="R31" s="54" t="n">
+        <v>41687</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>5.51950740814209</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>7.69999980926514</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>5.59999990463257</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>1.33333349227905</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="AB31" s="67" t="s">
+        <v>598</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD31" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>22.7679672241211</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>138459</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.703094887055827</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="67" t="s">
+        <v>601</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q32" s="54" t="n">
+        <v>41505</v>
+      </c>
+      <c r="R32" s="54" t="n">
+        <v>41701</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>6.43942499160767</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>7.80000019073486</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>9.10000038146973</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>7.80000019073486</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="AB32" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" s="67" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>10.5462017059326</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>159531</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>30.5767900367807</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="67" t="s">
+        <v>605</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q33" s="54" t="n">
+        <v>41515</v>
+      </c>
+      <c r="R33" s="54" t="n">
+        <v>41712</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>6.47227907180786</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>7.40000009536743</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>2.84615397453308</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="AB33" s="67" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD33" s="67" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="0" t="n">
+        <v>8.08213520050049</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>153802</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>7.23641062238178</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="67" t="s">
+        <v>609</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q34" s="54" t="n">
+        <v>41667</v>
+      </c>
+      <c r="R34" s="54" t="n">
+        <v>41732</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>2.13552355766296</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>5.59999990463257</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>880</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>8.30000019073486</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>6.40000009536743</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>3.36842083930969</v>
+      </c>
+      <c r="Y34" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>845</v>
+      </c>
+      <c r="AB34" s="67" t="s">
+        <v>610</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="67" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>4.66529750823975</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>112724</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>12.9582197135231</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q35" s="54" t="n">
+        <v>41556</v>
+      </c>
+      <c r="R35" s="54" t="n">
+        <v>41747</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>6.27515411376953</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>9.60000038146973</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>6.90000009536743</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>2.55555534362793</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="AB35" s="67" t="s">
+        <v>614</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="67" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>19.7125263214111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>567</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>132949</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>86.4925434059402</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="67" t="s">
+        <v>617</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q36" s="54" t="n">
+        <v>41688</v>
+      </c>
+      <c r="R36" s="54" t="n">
+        <v>41786</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>3.21971249580383</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>6.30000019073486</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>2.49999976158142</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="AB36" s="67" t="s">
+        <v>618</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD36" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="0" t="n">
+        <v>2.49691987037659</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>173914</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>84.7043333445897</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q37" s="54" t="n">
+        <v>41793</v>
+      </c>
+      <c r="R37" s="54" t="n">
+        <v>41838</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>1.47843945026398</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>6.90000009536743</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>8.60000038146973</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>3.09523749351501</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="AB37" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="0" t="n">
+        <v>3.74537992477417</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>160826</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>29.9838428198827</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q38" s="54" t="n">
+        <v>41295</v>
+      </c>
+      <c r="R38" s="54" t="n">
+        <v>41855</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>18.3983573913574</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>7.59999990463257</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>55.5999984741211</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>4.19999980926514</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>2.59999990463257</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="Y38" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="AB38" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="AC38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD38" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="0" t="n">
+        <v>16.2299785614014</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>161852</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.394149105001146</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="67" t="s">
+        <v>628</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q39" s="54" t="n">
+        <v>41576</v>
+      </c>
+      <c r="R39" s="54" t="n">
+        <v>41877</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>9.88911724090576</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>7.69999980926514</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y39" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB39" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD39" s="67" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="0" t="n">
+        <v>24.7063655853271</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>133061</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1.06347124291057</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q40" s="54" t="n">
+        <v>41668</v>
+      </c>
+      <c r="R40" s="54" t="n">
+        <v>41904</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>7.75359344482422</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>0.944444477558136</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB40" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD40" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="0" t="n">
+        <v>11.9917860031128</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>176120</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.112842012605572</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" s="67" t="s">
+        <v>636</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q41" s="54" t="n">
+        <v>41759</v>
+      </c>
+      <c r="R41" s="54" t="n">
+        <v>41933</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>5.71663236618042</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>5.59999990463257</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <v>1.15384614467621</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="AB41" s="67" t="s">
+        <v>637</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD41" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="0" t="n">
+        <v>13.4702262878418</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>178170</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>7.62190779109768</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="67" t="s">
+        <v>640</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q42" s="54" t="n">
+        <v>41927</v>
+      </c>
+      <c r="R42" s="54" t="n">
+        <v>41970</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>1.41273105144501</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>7.30000019073486</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>7.19999980926514</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>6.69999980926514</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <v>13.3999996185303</v>
+      </c>
+      <c r="Y42" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>779</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="AB42" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="67" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="0" t="n">
+        <v>19.3182754516602</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>735</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>204379</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>122.790081810921</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="67" t="s">
+        <v>644</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q43" s="54" t="n">
+        <v>41971</v>
+      </c>
+      <c r="R43" s="54" t="n">
+        <v>42020</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1.60985624790192</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>6.59999990463257</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>4.90000009536743</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>2.90000009536743</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>1.45000004768372</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <v>626</v>
+      </c>
+      <c r="AB43" s="67" t="s">
+        <v>645</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="67" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="0" t="n">
+        <v>4.89527702331543</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>149278</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1.1873395538902</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" s="67" t="s">
+        <v>648</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q44" s="54" t="n">
+        <v>41849</v>
+      </c>
+      <c r="R44" s="54" t="n">
+        <v>42048</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>6.53798770904541</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>8.60000038146973</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>4.69999980926514</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>6.40000009536743</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <v>2.06451630592346</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>42.9000015258789</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="AB44" s="67" t="s">
+        <v>649</v>
+      </c>
+      <c r="AC44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="0" t="n">
+        <v>18.4312114715576</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>156130</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.971665156675183</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" s="67" t="s">
+        <v>652</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q45" s="54" t="n">
+        <v>41921</v>
+      </c>
+      <c r="R45" s="54" t="n">
+        <v>42103</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>5.9794659614563</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>9.10000038146973</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>13.8000001907349</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>8.39999961853027</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <v>1.55555534362793</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <v>36.9000015258789</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="AB45" s="67" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="67" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="0" t="n">
+        <v>16.3613967895508</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>180848</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>2.79039054425182</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" s="67" t="s">
+        <v>656</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q46" s="54" t="n">
+        <v>41761</v>
+      </c>
+      <c r="R46" s="54" t="n">
+        <v>42104</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>11.2689933776855</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>7.69999980926514</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <v>3.15789461135864</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <v>45.0999984741211</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="AB46" s="67" t="s">
+        <v>657</v>
+      </c>
+      <c r="AC46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="67" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="0" t="n">
+        <v>16.3613967895508</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>192971</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1.01786483329761</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="67" t="s">
+        <v>660</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q47" s="54" t="n">
+        <v>41872</v>
+      </c>
+      <c r="R47" s="54" t="n">
+        <v>42128</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>8.41067790985107</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>8.39999961853027</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>16.7999992370605</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>7.90000009536743</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>5.59999990463257</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <v>2.43478226661682</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="AB47" s="67" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD47" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="0" t="n">
+        <v>12.1889114379883</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>149118</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>311.812784532747</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q48" s="54" t="n">
+        <v>41907</v>
+      </c>
+      <c r="R48" s="54" t="n">
+        <v>42170</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>8.64065742492676</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>7.30000019073486</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB48" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="0" t="n">
+        <v>4.7310061454773</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>235178</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>21.6386370782692</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q49" s="54" t="n">
+        <v>42164</v>
+      </c>
+      <c r="R49" s="54" t="n">
+        <v>42179</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>0.492813140153885</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>6.40000009536743</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>8.60000038146973</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <v>5.80000019073486</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <v>2.07142853736877</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="AB49" s="67" t="s">
+        <v>669</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD49" s="67" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="0" t="n">
+        <v>6.66940450668335</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>171506</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>47.5594078338112</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="67" t="s">
+        <v>671</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q50" s="54" t="n">
+        <v>42207</v>
+      </c>
+      <c r="R50" s="54" t="n">
+        <v>42235</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>0.9199178814888</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>6.69999980926514</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <v>8.19999980926514</v>
+      </c>
+      <c r="X50" s="0" t="n">
+        <v>1.90697658061981</v>
+      </c>
+      <c r="Y50" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z50" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <v>626</v>
+      </c>
+      <c r="AB50" s="67" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC50" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD50" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="0" t="n">
+        <v>5.3552360534668</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>95038</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>9.1758357348949</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q51" s="54" t="n">
+        <v>42051</v>
+      </c>
+      <c r="R51" s="54" t="n">
+        <v>42254</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>6.66940450668335</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>6.30000019073486</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>5.59999990463257</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <v>1.33333349227905</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="AB51" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD51" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="0" t="n">
+        <v>5.74948644638062</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>87945</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>27.9805618430849</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q52" s="54" t="n">
+        <v>42048</v>
+      </c>
+      <c r="R52" s="54" t="n">
+        <v>42261</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>6.99794673919678</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>6.69999980926514</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <v>7.09999990463257</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <v>3.43750023841858</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <v>869</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="AB52" s="67" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD52" s="67" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="0" t="n">
+        <v>1.80698156356812</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:AF52"/>
+  <mergeCells count="2">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AF1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>